--- a/NonBundle_AddOns - Count by Month.xlsx
+++ b/NonBundle_AddOns - Count by Month.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanditanandakumar/Dropbox (fuboTV)/Business Analytics/Team/Nandita/Git/Addons_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B00421C2-E4A5-FB40-9A26-7479FDA5AE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69793639-AC3D-BE44-BED3-8A84BC5DE70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27200" windowHeight="16940"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="27200" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44714.732980324072" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="523">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44714.732980324072" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="523" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C1048576" sheet="NonBundle_AddOns - Count"/>
   </cacheSource>
@@ -3854,8 +3854,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:T38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:S38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
       <items count="20">
@@ -3876,8 +3876,8 @@
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4415,10 +4415,10 @@
       <x v="15"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="4"/>
@@ -4442,19 +4442,19 @@
       <x v="28"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="27"/>
     </i>
     <i>
       <x v="24"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="19"/>
     </i>
     <i>
       <x v="8"/>
@@ -4487,10 +4487,10 @@
       <x v="21"/>
     </i>
     <i>
-      <x/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="6"/>
+      <x/>
     </i>
     <i>
       <x v="26"/>
@@ -4505,7 +4505,7 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="19">
+  <colItems count="18">
     <i>
       <x/>
     </i>
@@ -4556,9 +4556,6 @@
     </i>
     <i>
       <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
     </i>
     <i t="grand">
       <x/>
@@ -4875,11 +4872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4888,8 +4885,8 @@
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="7" bestFit="1" customWidth="1"/>
@@ -4897,7 +4894,7 @@
     <col min="29" max="29" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -4905,7 +4902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -4960,14 +4957,11 @@
       <c r="R4" s="1">
         <v>44682</v>
       </c>
-      <c r="S4" s="1">
-        <v>44713</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -5023,13 +5017,10 @@
         <v>68152</v>
       </c>
       <c r="S5" s="4">
-        <v>58302</v>
-      </c>
-      <c r="T5" s="4">
-        <v>1320205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1261903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -5085,13 +5076,10 @@
         <v>33298</v>
       </c>
       <c r="S6" s="4">
-        <v>25429</v>
-      </c>
-      <c r="T6" s="4">
-        <v>850881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>825452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -5147,13 +5135,10 @@
         <v>31439</v>
       </c>
       <c r="S7" s="4">
-        <v>28855</v>
-      </c>
-      <c r="T7" s="4">
-        <v>489923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>461068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -5209,13 +5194,10 @@
         <v>39942</v>
       </c>
       <c r="S8" s="4">
-        <v>3103</v>
-      </c>
-      <c r="T8" s="4">
-        <v>258739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>255636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -5271,113 +5253,104 @@
         <v>14945</v>
       </c>
       <c r="S9" s="4">
-        <v>13575</v>
-      </c>
-      <c r="T9" s="4">
-        <v>248384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>234809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4">
+        <v>13355</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12519</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11784</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11365</v>
+      </c>
+      <c r="F10" s="4">
+        <v>11122</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10925</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10597</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10288</v>
+      </c>
+      <c r="J10" s="4">
+        <v>10681</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10614</v>
+      </c>
+      <c r="L10" s="4">
+        <v>10073</v>
+      </c>
+      <c r="M10" s="4">
+        <v>9393</v>
+      </c>
+      <c r="N10" s="4">
+        <v>6829</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3675</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3341</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>3311</v>
+      </c>
+      <c r="R10" s="4">
+        <v>3183</v>
+      </c>
+      <c r="S10" s="4">
+        <v>153055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>3519</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="4">
         <v>14567</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P11" s="4">
         <v>30765</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q11" s="4">
         <v>47496</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R11" s="4">
         <v>45756</v>
       </c>
-      <c r="S10" s="4">
-        <v>34380</v>
-      </c>
-      <c r="T10" s="4">
-        <v>176483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4">
-        <v>13355</v>
-      </c>
-      <c r="C11" s="4">
-        <v>12519</v>
-      </c>
-      <c r="D11" s="4">
-        <v>11784</v>
-      </c>
-      <c r="E11" s="4">
-        <v>11365</v>
-      </c>
-      <c r="F11" s="4">
-        <v>11122</v>
-      </c>
-      <c r="G11" s="4">
-        <v>10925</v>
-      </c>
-      <c r="H11" s="4">
-        <v>10597</v>
-      </c>
-      <c r="I11" s="4">
-        <v>10288</v>
-      </c>
-      <c r="J11" s="4">
-        <v>10681</v>
-      </c>
-      <c r="K11" s="4">
-        <v>10614</v>
-      </c>
-      <c r="L11" s="4">
-        <v>10073</v>
-      </c>
-      <c r="M11" s="4">
-        <v>9393</v>
-      </c>
-      <c r="N11" s="4">
-        <v>6829</v>
-      </c>
-      <c r="O11" s="4">
-        <v>3675</v>
-      </c>
-      <c r="P11" s="4">
-        <v>3341</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>3311</v>
-      </c>
-      <c r="R11" s="4">
-        <v>3183</v>
-      </c>
       <c r="S11" s="4">
-        <v>2226</v>
-      </c>
-      <c r="T11" s="4">
-        <v>155281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>142103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -5433,13 +5406,10 @@
         <v>10005</v>
       </c>
       <c r="S12" s="4">
-        <v>9449</v>
-      </c>
-      <c r="T12" s="4">
-        <v>147357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>137908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -5495,13 +5465,10 @@
         <v>5081</v>
       </c>
       <c r="S13" s="4">
-        <v>4585</v>
-      </c>
-      <c r="T13" s="4">
-        <v>129835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>125250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -5557,13 +5524,10 @@
         <v>33361</v>
       </c>
       <c r="S14" s="4">
-        <v>2450</v>
-      </c>
-      <c r="T14" s="4">
-        <v>125977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>123527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -5617,13 +5581,10 @@
         <v>7517</v>
       </c>
       <c r="S15" s="4">
-        <v>6572</v>
-      </c>
-      <c r="T15" s="4">
-        <v>99749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>93177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -5679,13 +5640,10 @@
         <v>4495</v>
       </c>
       <c r="S16" s="4">
-        <v>4133</v>
-      </c>
-      <c r="T16" s="4">
-        <v>75091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>70958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -5741,13 +5699,10 @@
         <v>2777</v>
       </c>
       <c r="S17" s="4">
-        <v>2438</v>
-      </c>
-      <c r="T17" s="4">
-        <v>49097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>46659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5803,125 +5758,116 @@
         <v>2231</v>
       </c>
       <c r="S18" s="4">
-        <v>1910</v>
-      </c>
-      <c r="T18" s="4">
-        <v>41514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>39604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1606</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1560</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1570</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1589</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1669</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1826</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1868</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1946</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2093</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2163</v>
+      </c>
+      <c r="L19" s="4">
+        <v>2148</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2074</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2068</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2151</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2260</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>2303</v>
+      </c>
+      <c r="R19" s="4">
+        <v>2358</v>
+      </c>
+      <c r="S19" s="4">
+        <v>33252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
         <v>68</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>475</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <v>1540</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="4">
         <v>4102</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="4">
         <v>4158</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="4">
         <v>3512</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="4">
         <v>3526</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="4">
         <v>3416</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P20" s="4">
         <v>3980</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q20" s="4">
         <v>4170</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R20" s="4">
         <v>4250</v>
       </c>
-      <c r="S19" s="4">
-        <v>3227</v>
-      </c>
-      <c r="T19" s="4">
-        <v>36424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1606</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1560</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1570</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1589</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1669</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1826</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1868</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1946</v>
-      </c>
-      <c r="J20" s="4">
-        <v>2093</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2163</v>
-      </c>
-      <c r="L20" s="4">
-        <v>2148</v>
-      </c>
-      <c r="M20" s="4">
-        <v>2074</v>
-      </c>
-      <c r="N20" s="4">
-        <v>2068</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2151</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2260</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>2303</v>
-      </c>
-      <c r="R20" s="4">
-        <v>2358</v>
-      </c>
       <c r="S20" s="4">
-        <v>2139</v>
-      </c>
-      <c r="T20" s="4">
-        <v>35391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>33197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -5977,119 +5923,110 @@
         <v>1501</v>
       </c>
       <c r="S21" s="4">
-        <v>1365</v>
-      </c>
-      <c r="T21" s="4">
-        <v>25155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2365</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2307</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1787</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1560</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1362</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1270</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1173</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1122</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1106</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1076</v>
+      </c>
+      <c r="L22" s="4">
+        <v>997</v>
+      </c>
+      <c r="M22" s="4">
+        <v>967</v>
+      </c>
+      <c r="N22" s="4">
+        <v>944</v>
+      </c>
+      <c r="O22" s="4">
+        <v>913</v>
+      </c>
+      <c r="P22" s="4">
+        <v>890</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>899</v>
+      </c>
+      <c r="R22" s="4">
+        <v>866</v>
+      </c>
+      <c r="S22" s="4">
+        <v>21604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <v>618</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L23" s="4">
         <v>1462</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M23" s="4">
         <v>2011</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N23" s="4">
         <v>2729</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="4">
         <v>3234</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P23" s="4">
         <v>3530</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q23" s="4">
         <v>3740</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R23" s="4">
         <v>3735</v>
       </c>
-      <c r="S22" s="4">
-        <v>2439</v>
-      </c>
-      <c r="T22" s="4">
-        <v>23498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2365</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2307</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1787</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1560</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1362</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1270</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1173</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1122</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1106</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1076</v>
-      </c>
-      <c r="L23" s="4">
-        <v>997</v>
-      </c>
-      <c r="M23" s="4">
-        <v>967</v>
-      </c>
-      <c r="N23" s="4">
-        <v>944</v>
-      </c>
-      <c r="O23" s="4">
-        <v>913</v>
-      </c>
-      <c r="P23" s="4">
-        <v>890</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>899</v>
-      </c>
-      <c r="R23" s="4">
-        <v>866</v>
-      </c>
       <c r="S23" s="4">
-        <v>754</v>
-      </c>
-      <c r="T23" s="4">
-        <v>22358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>21059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -6145,13 +6082,10 @@
         <v>962</v>
       </c>
       <c r="S24" s="4">
-        <v>890</v>
-      </c>
-      <c r="T24" s="4">
-        <v>20722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -6207,13 +6141,10 @@
         <v>1266</v>
       </c>
       <c r="S25" s="4">
-        <v>1158</v>
-      </c>
-      <c r="T25" s="4">
-        <v>18058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -6269,13 +6200,10 @@
         <v>799</v>
       </c>
       <c r="S26" s="4">
-        <v>766</v>
-      </c>
-      <c r="T26" s="4">
-        <v>12348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>11582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -6331,13 +6259,10 @@
         <v>807</v>
       </c>
       <c r="S27" s="4">
-        <v>707</v>
-      </c>
-      <c r="T27" s="4">
-        <v>11282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>10575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -6391,13 +6316,10 @@
         <v>529</v>
       </c>
       <c r="S28" s="4">
-        <v>470</v>
-      </c>
-      <c r="T28" s="4">
-        <v>8132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -6453,13 +6375,10 @@
         <v>467</v>
       </c>
       <c r="S29" s="4">
-        <v>442</v>
-      </c>
-      <c r="T29" s="4">
-        <v>7577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+        <v>7135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -6515,13 +6434,10 @@
         <v>6</v>
       </c>
       <c r="S30" s="4">
-        <v>3</v>
-      </c>
-      <c r="T30" s="4">
-        <v>5393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
@@ -6577,13 +6493,10 @@
         <v>108</v>
       </c>
       <c r="S31" s="4">
-        <v>20</v>
-      </c>
-      <c r="T31" s="4">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -6639,13 +6552,10 @@
         <v>4</v>
       </c>
       <c r="S32" s="4">
-        <v>3</v>
-      </c>
-      <c r="T32" s="4">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -6671,105 +6581,96 @@
         <v>295</v>
       </c>
       <c r="S33" s="4">
-        <v>271</v>
-      </c>
-      <c r="T33" s="4">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4">
+        <v>117</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4">
+        <v>16</v>
+      </c>
+      <c r="F34" s="4">
+        <v>16</v>
+      </c>
+      <c r="G34" s="4">
+        <v>14</v>
+      </c>
+      <c r="H34" s="4">
+        <v>13</v>
+      </c>
+      <c r="I34" s="4">
+        <v>14</v>
+      </c>
+      <c r="J34" s="4">
+        <v>15</v>
+      </c>
+      <c r="K34" s="4">
+        <v>15</v>
+      </c>
+      <c r="L34" s="4">
+        <v>15</v>
+      </c>
+      <c r="M34" s="4">
+        <v>15</v>
+      </c>
+      <c r="N34" s="4">
+        <v>14</v>
+      </c>
+      <c r="O34" s="4">
+        <v>14</v>
+      </c>
+      <c r="P34" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>12</v>
+      </c>
+      <c r="R34" s="4">
+        <v>11</v>
+      </c>
+      <c r="S34" s="4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4">
         <v>294</v>
       </c>
-      <c r="S34" s="4">
-        <v>194</v>
-      </c>
-      <c r="T34" s="4">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="4">
-        <v>117</v>
-      </c>
-      <c r="C35" s="4">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4">
-        <v>12</v>
-      </c>
-      <c r="E35" s="4">
-        <v>16</v>
-      </c>
-      <c r="F35" s="4">
-        <v>16</v>
-      </c>
-      <c r="G35" s="4">
-        <v>14</v>
-      </c>
-      <c r="H35" s="4">
-        <v>13</v>
-      </c>
-      <c r="I35" s="4">
-        <v>14</v>
-      </c>
-      <c r="J35" s="4">
-        <v>15</v>
-      </c>
-      <c r="K35" s="4">
-        <v>15</v>
-      </c>
-      <c r="L35" s="4">
-        <v>15</v>
-      </c>
-      <c r="M35" s="4">
-        <v>15</v>
-      </c>
-      <c r="N35" s="4">
-        <v>14</v>
-      </c>
-      <c r="O35" s="4">
-        <v>14</v>
-      </c>
-      <c r="P35" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>12</v>
-      </c>
-      <c r="R35" s="4">
-        <v>11</v>
-      </c>
       <c r="S35" s="4">
-        <v>8</v>
-      </c>
-      <c r="T35" s="4">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
@@ -6810,12 +6711,11 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4">
+      <c r="S36" s="4">
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -6864,12 +6764,11 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4">
+      <c r="S37" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -6925,10 +6824,7 @@
         <v>320440</v>
       </c>
       <c r="S38" s="4">
-        <v>212263</v>
-      </c>
-      <c r="T38" s="4">
-        <v>4399911</v>
+        <v>4187648</v>
       </c>
     </row>
   </sheetData>
@@ -6937,7 +6833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C523"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NonBundle_AddOns - Count by Month.xlsx
+++ b/NonBundle_AddOns - Count by Month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanditanandakumar/Dropbox (fuboTV)/Business Analytics/Team/Nandita/Git/Addons_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69793639-AC3D-BE44-BED3-8A84BC5DE70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9676C-5A9E-F84F-9D7B-BFD3C194C955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27200" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3854,7 +3854,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:S38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -3881,7 +3881,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="35">
         <item x="32"/>
         <item x="0"/>
@@ -4400,103 +4400,103 @@
   </rowFields>
   <rowItems count="34">
     <i>
-      <x v="7"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="18"/>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -4963,908 +4963,844 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
-        <v>69876</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>55213</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>42188</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>37341</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>34686</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>34069</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>32645</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>37733</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
-        <v>94230</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
-        <v>118742</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>121834</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
-        <v>123693</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>123698</v>
+        <v>1</v>
       </c>
       <c r="O5" s="4">
-        <v>106807</v>
-      </c>
-      <c r="P5" s="4">
-        <v>86405</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>74591</v>
-      </c>
-      <c r="R5" s="4">
-        <v>68152</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
       <c r="S5" s="4">
-        <v>1261903</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4">
-        <v>56869</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>59758</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4">
-        <v>58512</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
-        <v>59053</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4">
-        <v>59801</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4">
-        <v>61149</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4">
-        <v>55937</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4">
-        <v>50633</v>
+        <v>28</v>
       </c>
       <c r="J6" s="4">
-        <v>48348</v>
+        <v>13</v>
       </c>
       <c r="K6" s="4">
-        <v>46909</v>
-      </c>
-      <c r="L6" s="4">
-        <v>44140</v>
-      </c>
-      <c r="M6" s="4">
-        <v>41634</v>
-      </c>
-      <c r="N6" s="4">
-        <v>40056</v>
-      </c>
-      <c r="O6" s="4">
-        <v>38310</v>
-      </c>
-      <c r="P6" s="4">
-        <v>36347</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>34698</v>
-      </c>
-      <c r="R6" s="4">
-        <v>33298</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="4">
-        <v>825452</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4">
-        <v>22192</v>
-      </c>
-      <c r="C7" s="4">
-        <v>22566</v>
-      </c>
-      <c r="D7" s="4">
-        <v>23533</v>
-      </c>
-      <c r="E7" s="4">
-        <v>24447</v>
-      </c>
-      <c r="F7" s="4">
-        <v>24530</v>
-      </c>
-      <c r="G7" s="4">
-        <v>24934</v>
-      </c>
-      <c r="H7" s="4">
-        <v>24663</v>
-      </c>
-      <c r="I7" s="4">
-        <v>24447</v>
-      </c>
-      <c r="J7" s="4">
-        <v>26791</v>
-      </c>
-      <c r="K7" s="4">
-        <v>29943</v>
-      </c>
-      <c r="L7" s="4">
-        <v>30055</v>
-      </c>
-      <c r="M7" s="4">
-        <v>29383</v>
-      </c>
-      <c r="N7" s="4">
-        <v>30304</v>
-      </c>
-      <c r="O7" s="4">
-        <v>29508</v>
-      </c>
-      <c r="P7" s="4">
-        <v>31514</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>30819</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4">
-        <v>31439</v>
+        <v>294</v>
       </c>
       <c r="S7" s="4">
-        <v>461068</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>9532</v>
+        <v>117</v>
       </c>
       <c r="C8" s="4">
-        <v>9913</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
-        <v>9981</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
-        <v>10645</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
-        <v>10916</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4">
-        <v>11805</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4">
-        <v>12394</v>
+        <v>13</v>
       </c>
       <c r="I8" s="4">
-        <v>12772</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4">
-        <v>15219</v>
+        <v>15</v>
       </c>
       <c r="K8" s="4">
-        <v>16233</v>
+        <v>15</v>
       </c>
       <c r="L8" s="4">
-        <v>15996</v>
+        <v>15</v>
       </c>
       <c r="M8" s="4">
-        <v>15552</v>
+        <v>15</v>
       </c>
       <c r="N8" s="4">
-        <v>15105</v>
+        <v>14</v>
       </c>
       <c r="O8" s="4">
-        <v>15985</v>
+        <v>14</v>
       </c>
       <c r="P8" s="4">
-        <v>16959</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="4">
-        <v>16687</v>
+        <v>12</v>
       </c>
       <c r="R8" s="4">
-        <v>39942</v>
+        <v>11</v>
       </c>
       <c r="S8" s="4">
-        <v>255636</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8718</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8728</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8653</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8857</v>
-      </c>
-      <c r="F9" s="4">
-        <v>9499</v>
-      </c>
-      <c r="G9" s="4">
-        <v>15907</v>
-      </c>
-      <c r="H9" s="4">
-        <v>16519</v>
-      </c>
-      <c r="I9" s="4">
-        <v>14573</v>
-      </c>
-      <c r="J9" s="4">
-        <v>15446</v>
-      </c>
-      <c r="K9" s="4">
-        <v>16403</v>
-      </c>
-      <c r="L9" s="4">
-        <v>16577</v>
-      </c>
-      <c r="M9" s="4">
-        <v>15545</v>
-      </c>
-      <c r="N9" s="4">
-        <v>15576</v>
-      </c>
-      <c r="O9" s="4">
-        <v>16046</v>
-      </c>
-      <c r="P9" s="4">
-        <v>16653</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="4">
-        <v>16164</v>
+        <v>66</v>
       </c>
       <c r="R9" s="4">
-        <v>14945</v>
+        <v>295</v>
       </c>
       <c r="S9" s="4">
-        <v>234809</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>13355</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4">
-        <v>12519</v>
+        <v>121</v>
       </c>
       <c r="D10" s="4">
-        <v>11784</v>
+        <v>110</v>
       </c>
       <c r="E10" s="4">
-        <v>11365</v>
+        <v>104</v>
       </c>
       <c r="F10" s="4">
-        <v>11122</v>
+        <v>106</v>
       </c>
       <c r="G10" s="4">
-        <v>10925</v>
+        <v>104</v>
       </c>
       <c r="H10" s="4">
-        <v>10597</v>
+        <v>104</v>
       </c>
       <c r="I10" s="4">
-        <v>10288</v>
+        <v>114</v>
       </c>
       <c r="J10" s="4">
-        <v>10681</v>
+        <v>83</v>
       </c>
       <c r="K10" s="4">
-        <v>10614</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4">
-        <v>10073</v>
+        <v>21</v>
       </c>
       <c r="M10" s="4">
-        <v>9393</v>
+        <v>10</v>
       </c>
       <c r="N10" s="4">
-        <v>6829</v>
+        <v>8</v>
       </c>
       <c r="O10" s="4">
-        <v>3675</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4">
-        <v>3341</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="4">
-        <v>3311</v>
+        <v>5</v>
       </c>
       <c r="R10" s="4">
-        <v>3183</v>
+        <v>4</v>
       </c>
       <c r="S10" s="4">
-        <v>153055</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>157</v>
+      </c>
+      <c r="C11" s="4">
+        <v>155</v>
+      </c>
+      <c r="D11" s="4">
+        <v>149</v>
+      </c>
+      <c r="E11" s="4">
+        <v>146</v>
+      </c>
+      <c r="F11" s="4">
+        <v>142</v>
+      </c>
+      <c r="G11" s="4">
+        <v>138</v>
+      </c>
+      <c r="H11" s="4">
+        <v>135</v>
+      </c>
+      <c r="I11" s="4">
+        <v>132</v>
+      </c>
+      <c r="J11" s="4">
+        <v>129</v>
+      </c>
+      <c r="K11" s="4">
+        <v>129</v>
+      </c>
+      <c r="L11" s="4">
+        <v>129</v>
+      </c>
+      <c r="M11" s="4">
+        <v>125</v>
+      </c>
       <c r="N11" s="4">
-        <v>3519</v>
+        <v>121</v>
       </c>
       <c r="O11" s="4">
-        <v>14567</v>
+        <v>117</v>
       </c>
       <c r="P11" s="4">
-        <v>30765</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="4">
-        <v>47496</v>
+        <v>110</v>
       </c>
       <c r="R11" s="4">
-        <v>45756</v>
+        <v>108</v>
       </c>
       <c r="S11" s="4">
-        <v>142103</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>848</v>
+      </c>
+      <c r="C12" s="4">
+        <v>782</v>
+      </c>
+      <c r="D12" s="4">
+        <v>694</v>
+      </c>
+      <c r="E12" s="4">
+        <v>646</v>
+      </c>
+      <c r="F12" s="4">
+        <v>615</v>
+      </c>
+      <c r="G12" s="4">
+        <v>568</v>
+      </c>
+      <c r="H12" s="4">
+        <v>523</v>
+      </c>
+      <c r="I12" s="4">
+        <v>513</v>
+      </c>
+      <c r="J12" s="4">
+        <v>105</v>
+      </c>
+      <c r="K12" s="4">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4">
+        <v>8</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4">
+        <v>11</v>
+      </c>
+      <c r="P12" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>5</v>
+      </c>
+      <c r="R12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
-        <v>6088</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6351</v>
-      </c>
-      <c r="D12" s="4">
-        <v>6504</v>
-      </c>
-      <c r="E12" s="4">
-        <v>6643</v>
-      </c>
-      <c r="F12" s="4">
-        <v>6768</v>
-      </c>
-      <c r="G12" s="4">
-        <v>7027</v>
-      </c>
-      <c r="H12" s="4">
-        <v>7190</v>
-      </c>
-      <c r="I12" s="4">
-        <v>7309</v>
-      </c>
-      <c r="J12" s="4">
-        <v>8038</v>
-      </c>
-      <c r="K12" s="4">
-        <v>8565</v>
-      </c>
-      <c r="L12" s="4">
-        <v>8762</v>
-      </c>
-      <c r="M12" s="4">
-        <v>9084</v>
-      </c>
-      <c r="N12" s="4">
-        <v>9938</v>
-      </c>
-      <c r="O12" s="4">
-        <v>9936</v>
-      </c>
-      <c r="P12" s="4">
-        <v>9874</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>9826</v>
-      </c>
-      <c r="R12" s="4">
-        <v>10005</v>
-      </c>
       <c r="S12" s="4">
-        <v>137908</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>11215</v>
+        <v>341</v>
       </c>
       <c r="C13" s="4">
-        <v>10356</v>
+        <v>310</v>
       </c>
       <c r="D13" s="4">
-        <v>9567</v>
+        <v>289</v>
       </c>
       <c r="E13" s="4">
-        <v>9057</v>
+        <v>299</v>
       </c>
       <c r="F13" s="4">
-        <v>8721</v>
+        <v>313</v>
       </c>
       <c r="G13" s="4">
-        <v>8369</v>
+        <v>344</v>
       </c>
       <c r="H13" s="4">
-        <v>7925</v>
+        <v>371</v>
       </c>
       <c r="I13" s="4">
-        <v>7552</v>
+        <v>394</v>
       </c>
       <c r="J13" s="4">
-        <v>7087</v>
+        <v>529</v>
       </c>
       <c r="K13" s="4">
-        <v>6593</v>
+        <v>574</v>
       </c>
       <c r="L13" s="4">
-        <v>6236</v>
+        <v>526</v>
       </c>
       <c r="M13" s="4">
-        <v>5975</v>
+        <v>503</v>
       </c>
       <c r="N13" s="4">
-        <v>5723</v>
+        <v>491</v>
       </c>
       <c r="O13" s="4">
-        <v>5482</v>
+        <v>466</v>
       </c>
       <c r="P13" s="4">
-        <v>5249</v>
+        <v>463</v>
       </c>
       <c r="Q13" s="4">
-        <v>5062</v>
+        <v>455</v>
       </c>
       <c r="R13" s="4">
-        <v>5081</v>
+        <v>467</v>
       </c>
       <c r="S13" s="4">
-        <v>125250</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3508</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4">
-        <v>3739</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4">
-        <v>3944</v>
+        <v>99</v>
       </c>
       <c r="E14" s="4">
-        <v>4155</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4">
-        <v>4247</v>
+        <v>183</v>
       </c>
       <c r="G14" s="4">
-        <v>4584</v>
+        <v>706</v>
       </c>
       <c r="H14" s="4">
-        <v>4886</v>
+        <v>750</v>
       </c>
       <c r="I14" s="4">
-        <v>5185</v>
+        <v>748</v>
       </c>
       <c r="J14" s="4">
-        <v>6049</v>
+        <v>705</v>
       </c>
       <c r="K14" s="4">
-        <v>6547</v>
+        <v>637</v>
       </c>
       <c r="L14" s="4">
-        <v>6329</v>
+        <v>580</v>
       </c>
       <c r="M14" s="4">
-        <v>5932</v>
+        <v>526</v>
       </c>
       <c r="N14" s="4">
-        <v>5830</v>
+        <v>510</v>
       </c>
       <c r="O14" s="4">
-        <v>7365</v>
+        <v>510</v>
       </c>
       <c r="P14" s="4">
-        <v>8817</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="4">
-        <v>9049</v>
+        <v>517</v>
       </c>
       <c r="R14" s="4">
-        <v>33361</v>
+        <v>529</v>
       </c>
       <c r="S14" s="4">
-        <v>123527</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>424</v>
+      </c>
       <c r="C15" s="4">
-        <v>699</v>
+        <v>393</v>
       </c>
       <c r="D15" s="4">
-        <v>1902</v>
+        <v>382</v>
       </c>
       <c r="E15" s="4">
-        <v>2865</v>
+        <v>423</v>
       </c>
       <c r="F15" s="4">
-        <v>3573</v>
+        <v>479</v>
       </c>
       <c r="G15" s="4">
-        <v>4262</v>
+        <v>547</v>
       </c>
       <c r="H15" s="4">
-        <v>4936</v>
+        <v>554</v>
       </c>
       <c r="I15" s="4">
-        <v>5564</v>
+        <v>596</v>
       </c>
       <c r="J15" s="4">
-        <v>6758</v>
+        <v>704</v>
       </c>
       <c r="K15" s="4">
-        <v>7497</v>
+        <v>743</v>
       </c>
       <c r="L15" s="4">
-        <v>7847</v>
+        <v>739</v>
       </c>
       <c r="M15" s="4">
-        <v>8146</v>
+        <v>733</v>
       </c>
       <c r="N15" s="4">
-        <v>8253</v>
+        <v>722</v>
       </c>
       <c r="O15" s="4">
-        <v>7904</v>
+        <v>765</v>
       </c>
       <c r="P15" s="4">
-        <v>7784</v>
+        <v>782</v>
       </c>
       <c r="Q15" s="4">
-        <v>7670</v>
+        <v>782</v>
       </c>
       <c r="R15" s="4">
-        <v>7517</v>
+        <v>807</v>
       </c>
       <c r="S15" s="4">
-        <v>93177</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
-        <v>5213</v>
+        <v>540</v>
       </c>
       <c r="C16" s="4">
-        <v>5068</v>
+        <v>511</v>
       </c>
       <c r="D16" s="4">
-        <v>4451</v>
+        <v>493</v>
       </c>
       <c r="E16" s="4">
-        <v>4087</v>
+        <v>493</v>
       </c>
       <c r="F16" s="4">
-        <v>3887</v>
+        <v>472</v>
       </c>
       <c r="G16" s="4">
-        <v>3844</v>
+        <v>554</v>
       </c>
       <c r="H16" s="4">
-        <v>3728</v>
+        <v>635</v>
       </c>
       <c r="I16" s="4">
-        <v>3594</v>
+        <v>691</v>
       </c>
       <c r="J16" s="4">
-        <v>3705</v>
+        <v>813</v>
       </c>
       <c r="K16" s="4">
-        <v>3738</v>
+        <v>848</v>
       </c>
       <c r="L16" s="4">
-        <v>4296</v>
+        <v>818</v>
       </c>
       <c r="M16" s="4">
-        <v>4373</v>
+        <v>761</v>
       </c>
       <c r="N16" s="4">
-        <v>4500</v>
+        <v>774</v>
       </c>
       <c r="O16" s="4">
-        <v>4257</v>
+        <v>757</v>
       </c>
       <c r="P16" s="4">
-        <v>3929</v>
+        <v>798</v>
       </c>
       <c r="Q16" s="4">
-        <v>3793</v>
+        <v>825</v>
       </c>
       <c r="R16" s="4">
-        <v>4495</v>
+        <v>799</v>
       </c>
       <c r="S16" s="4">
-        <v>70958</v>
+        <v>11582</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>2725</v>
+        <v>772</v>
       </c>
       <c r="C17" s="4">
-        <v>2548</v>
+        <v>764</v>
       </c>
       <c r="D17" s="4">
-        <v>2456</v>
+        <v>787</v>
       </c>
       <c r="E17" s="4">
-        <v>2432</v>
+        <v>808</v>
       </c>
       <c r="F17" s="4">
-        <v>2417</v>
+        <v>821</v>
       </c>
       <c r="G17" s="4">
-        <v>2494</v>
+        <v>857</v>
       </c>
       <c r="H17" s="4">
-        <v>2546</v>
+        <v>884</v>
       </c>
       <c r="I17" s="4">
-        <v>2657</v>
+        <v>973</v>
       </c>
       <c r="J17" s="4">
-        <v>2977</v>
+        <v>1062</v>
       </c>
       <c r="K17" s="4">
-        <v>3141</v>
+        <v>1086</v>
       </c>
       <c r="L17" s="4">
-        <v>3073</v>
+        <v>1087</v>
       </c>
       <c r="M17" s="4">
-        <v>2962</v>
+        <v>1091</v>
       </c>
       <c r="N17" s="4">
-        <v>2948</v>
+        <v>1108</v>
       </c>
       <c r="O17" s="4">
-        <v>2885</v>
+        <v>1173</v>
       </c>
       <c r="P17" s="4">
-        <v>2820</v>
+        <v>1178</v>
       </c>
       <c r="Q17" s="4">
-        <v>2801</v>
+        <v>1183</v>
       </c>
       <c r="R17" s="4">
-        <v>2777</v>
+        <v>1266</v>
       </c>
       <c r="S17" s="4">
-        <v>46659</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4">
-        <v>3170</v>
+        <v>1336</v>
       </c>
       <c r="C18" s="4">
-        <v>3455</v>
+        <v>1292</v>
       </c>
       <c r="D18" s="4">
-        <v>2756</v>
+        <v>1196</v>
       </c>
       <c r="E18" s="4">
-        <v>2392</v>
+        <v>1210</v>
       </c>
       <c r="F18" s="4">
-        <v>2134</v>
+        <v>1165</v>
       </c>
       <c r="G18" s="4">
-        <v>1963</v>
+        <v>1188</v>
       </c>
       <c r="H18" s="4">
-        <v>1927</v>
+        <v>1149</v>
       </c>
       <c r="I18" s="4">
-        <v>1903</v>
+        <v>1136</v>
       </c>
       <c r="J18" s="4">
-        <v>2062</v>
+        <v>1245</v>
       </c>
       <c r="K18" s="4">
-        <v>2188</v>
+        <v>1309</v>
       </c>
       <c r="L18" s="4">
-        <v>2217</v>
+        <v>1231</v>
       </c>
       <c r="M18" s="4">
-        <v>2168</v>
+        <v>1163</v>
       </c>
       <c r="N18" s="4">
-        <v>2183</v>
+        <v>1121</v>
       </c>
       <c r="O18" s="4">
-        <v>2212</v>
+        <v>1063</v>
       </c>
       <c r="P18" s="4">
-        <v>2327</v>
+        <v>1034</v>
       </c>
       <c r="Q18" s="4">
-        <v>2316</v>
+        <v>1032</v>
       </c>
       <c r="R18" s="4">
-        <v>2231</v>
+        <v>962</v>
       </c>
       <c r="S18" s="4">
-        <v>39604</v>
+        <v>19832</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1606</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1560</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1570</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1589</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1669</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1826</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1868</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1946</v>
-      </c>
-      <c r="J19" s="4">
-        <v>2093</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4">
-        <v>2163</v>
+        <v>618</v>
       </c>
       <c r="L19" s="4">
-        <v>2148</v>
+        <v>1462</v>
       </c>
       <c r="M19" s="4">
-        <v>2074</v>
+        <v>2011</v>
       </c>
       <c r="N19" s="4">
-        <v>2068</v>
+        <v>2729</v>
       </c>
       <c r="O19" s="4">
-        <v>2151</v>
+        <v>3234</v>
       </c>
       <c r="P19" s="4">
-        <v>2260</v>
+        <v>3530</v>
       </c>
       <c r="Q19" s="4">
-        <v>2303</v>
+        <v>3740</v>
       </c>
       <c r="R19" s="4">
-        <v>2358</v>
+        <v>3735</v>
       </c>
       <c r="S19" s="4">
-        <v>33252</v>
+        <v>21059</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2365</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2307</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1787</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1560</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1362</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1270</v>
+      </c>
       <c r="H20" s="4">
-        <v>68</v>
+        <v>1173</v>
       </c>
       <c r="I20" s="4">
-        <v>475</v>
+        <v>1122</v>
       </c>
       <c r="J20" s="4">
-        <v>1540</v>
+        <v>1106</v>
       </c>
       <c r="K20" s="4">
-        <v>4102</v>
+        <v>1076</v>
       </c>
       <c r="L20" s="4">
-        <v>4158</v>
+        <v>997</v>
       </c>
       <c r="M20" s="4">
-        <v>3512</v>
+        <v>967</v>
       </c>
       <c r="N20" s="4">
-        <v>3526</v>
+        <v>944</v>
       </c>
       <c r="O20" s="4">
-        <v>3416</v>
+        <v>913</v>
       </c>
       <c r="P20" s="4">
-        <v>3980</v>
+        <v>890</v>
       </c>
       <c r="Q20" s="4">
-        <v>4170</v>
+        <v>899</v>
       </c>
       <c r="R20" s="4">
-        <v>4250</v>
+        <v>866</v>
       </c>
       <c r="S20" s="4">
-        <v>33197</v>
+        <v>21604</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -5928,844 +5864,908 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2365</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2307</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1787</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1560</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1362</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1270</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="4">
-        <v>1173</v>
+        <v>68</v>
       </c>
       <c r="I22" s="4">
-        <v>1122</v>
+        <v>475</v>
       </c>
       <c r="J22" s="4">
-        <v>1106</v>
+        <v>1540</v>
       </c>
       <c r="K22" s="4">
-        <v>1076</v>
+        <v>4102</v>
       </c>
       <c r="L22" s="4">
-        <v>997</v>
+        <v>4158</v>
       </c>
       <c r="M22" s="4">
-        <v>967</v>
+        <v>3512</v>
       </c>
       <c r="N22" s="4">
-        <v>944</v>
+        <v>3526</v>
       </c>
       <c r="O22" s="4">
-        <v>913</v>
+        <v>3416</v>
       </c>
       <c r="P22" s="4">
-        <v>890</v>
+        <v>3980</v>
       </c>
       <c r="Q22" s="4">
-        <v>899</v>
+        <v>4170</v>
       </c>
       <c r="R22" s="4">
-        <v>866</v>
+        <v>4250</v>
       </c>
       <c r="S22" s="4">
-        <v>21604</v>
+        <v>33197</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1606</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1560</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1570</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1589</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1669</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1826</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1868</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1946</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2093</v>
+      </c>
       <c r="K23" s="4">
-        <v>618</v>
+        <v>2163</v>
       </c>
       <c r="L23" s="4">
-        <v>1462</v>
+        <v>2148</v>
       </c>
       <c r="M23" s="4">
-        <v>2011</v>
+        <v>2074</v>
       </c>
       <c r="N23" s="4">
-        <v>2729</v>
+        <v>2068</v>
       </c>
       <c r="O23" s="4">
-        <v>3234</v>
+        <v>2151</v>
       </c>
       <c r="P23" s="4">
-        <v>3530</v>
+        <v>2260</v>
       </c>
       <c r="Q23" s="4">
-        <v>3740</v>
+        <v>2303</v>
       </c>
       <c r="R23" s="4">
-        <v>3735</v>
+        <v>2358</v>
       </c>
       <c r="S23" s="4">
-        <v>21059</v>
+        <v>33252</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>1336</v>
+        <v>3170</v>
       </c>
       <c r="C24" s="4">
-        <v>1292</v>
+        <v>3455</v>
       </c>
       <c r="D24" s="4">
-        <v>1196</v>
+        <v>2756</v>
       </c>
       <c r="E24" s="4">
-        <v>1210</v>
+        <v>2392</v>
       </c>
       <c r="F24" s="4">
-        <v>1165</v>
+        <v>2134</v>
       </c>
       <c r="G24" s="4">
-        <v>1188</v>
+        <v>1963</v>
       </c>
       <c r="H24" s="4">
-        <v>1149</v>
+        <v>1927</v>
       </c>
       <c r="I24" s="4">
-        <v>1136</v>
+        <v>1903</v>
       </c>
       <c r="J24" s="4">
-        <v>1245</v>
+        <v>2062</v>
       </c>
       <c r="K24" s="4">
-        <v>1309</v>
+        <v>2188</v>
       </c>
       <c r="L24" s="4">
-        <v>1231</v>
+        <v>2217</v>
       </c>
       <c r="M24" s="4">
-        <v>1163</v>
+        <v>2168</v>
       </c>
       <c r="N24" s="4">
-        <v>1121</v>
+        <v>2183</v>
       </c>
       <c r="O24" s="4">
-        <v>1063</v>
+        <v>2212</v>
       </c>
       <c r="P24" s="4">
-        <v>1034</v>
+        <v>2327</v>
       </c>
       <c r="Q24" s="4">
-        <v>1032</v>
+        <v>2316</v>
       </c>
       <c r="R24" s="4">
-        <v>962</v>
+        <v>2231</v>
       </c>
       <c r="S24" s="4">
-        <v>19832</v>
+        <v>39604</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4">
-        <v>772</v>
+        <v>2725</v>
       </c>
       <c r="C25" s="4">
-        <v>764</v>
+        <v>2548</v>
       </c>
       <c r="D25" s="4">
-        <v>787</v>
+        <v>2456</v>
       </c>
       <c r="E25" s="4">
-        <v>808</v>
+        <v>2432</v>
       </c>
       <c r="F25" s="4">
-        <v>821</v>
+        <v>2417</v>
       </c>
       <c r="G25" s="4">
-        <v>857</v>
+        <v>2494</v>
       </c>
       <c r="H25" s="4">
-        <v>884</v>
+        <v>2546</v>
       </c>
       <c r="I25" s="4">
-        <v>973</v>
+        <v>2657</v>
       </c>
       <c r="J25" s="4">
-        <v>1062</v>
+        <v>2977</v>
       </c>
       <c r="K25" s="4">
-        <v>1086</v>
+        <v>3141</v>
       </c>
       <c r="L25" s="4">
-        <v>1087</v>
+        <v>3073</v>
       </c>
       <c r="M25" s="4">
-        <v>1091</v>
+        <v>2962</v>
       </c>
       <c r="N25" s="4">
-        <v>1108</v>
+        <v>2948</v>
       </c>
       <c r="O25" s="4">
-        <v>1173</v>
+        <v>2885</v>
       </c>
       <c r="P25" s="4">
-        <v>1178</v>
+        <v>2820</v>
       </c>
       <c r="Q25" s="4">
-        <v>1183</v>
+        <v>2801</v>
       </c>
       <c r="R25" s="4">
-        <v>1266</v>
+        <v>2777</v>
       </c>
       <c r="S25" s="4">
-        <v>16900</v>
+        <v>46659</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4">
-        <v>540</v>
+        <v>5213</v>
       </c>
       <c r="C26" s="4">
-        <v>511</v>
+        <v>5068</v>
       </c>
       <c r="D26" s="4">
-        <v>493</v>
+        <v>4451</v>
       </c>
       <c r="E26" s="4">
-        <v>493</v>
+        <v>4087</v>
       </c>
       <c r="F26" s="4">
-        <v>472</v>
+        <v>3887</v>
       </c>
       <c r="G26" s="4">
-        <v>554</v>
+        <v>3844</v>
       </c>
       <c r="H26" s="4">
-        <v>635</v>
+        <v>3728</v>
       </c>
       <c r="I26" s="4">
-        <v>691</v>
+        <v>3594</v>
       </c>
       <c r="J26" s="4">
-        <v>813</v>
+        <v>3705</v>
       </c>
       <c r="K26" s="4">
-        <v>848</v>
+        <v>3738</v>
       </c>
       <c r="L26" s="4">
-        <v>818</v>
+        <v>4296</v>
       </c>
       <c r="M26" s="4">
-        <v>761</v>
+        <v>4373</v>
       </c>
       <c r="N26" s="4">
-        <v>774</v>
+        <v>4500</v>
       </c>
       <c r="O26" s="4">
-        <v>757</v>
+        <v>4257</v>
       </c>
       <c r="P26" s="4">
-        <v>798</v>
+        <v>3929</v>
       </c>
       <c r="Q26" s="4">
-        <v>825</v>
+        <v>3793</v>
       </c>
       <c r="R26" s="4">
-        <v>799</v>
+        <v>4495</v>
       </c>
       <c r="S26" s="4">
-        <v>11582</v>
+        <v>70958</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4">
-        <v>424</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <v>393</v>
+        <v>699</v>
       </c>
       <c r="D27" s="4">
-        <v>382</v>
+        <v>1902</v>
       </c>
       <c r="E27" s="4">
-        <v>423</v>
+        <v>2865</v>
       </c>
       <c r="F27" s="4">
-        <v>479</v>
+        <v>3573</v>
       </c>
       <c r="G27" s="4">
-        <v>547</v>
+        <v>4262</v>
       </c>
       <c r="H27" s="4">
-        <v>554</v>
+        <v>4936</v>
       </c>
       <c r="I27" s="4">
-        <v>596</v>
+        <v>5564</v>
       </c>
       <c r="J27" s="4">
-        <v>704</v>
+        <v>6758</v>
       </c>
       <c r="K27" s="4">
-        <v>743</v>
+        <v>7497</v>
       </c>
       <c r="L27" s="4">
-        <v>739</v>
+        <v>7847</v>
       </c>
       <c r="M27" s="4">
-        <v>733</v>
+        <v>8146</v>
       </c>
       <c r="N27" s="4">
-        <v>722</v>
+        <v>8253</v>
       </c>
       <c r="O27" s="4">
-        <v>765</v>
+        <v>7904</v>
       </c>
       <c r="P27" s="4">
-        <v>782</v>
+        <v>7784</v>
       </c>
       <c r="Q27" s="4">
-        <v>782</v>
+        <v>7670</v>
       </c>
       <c r="R27" s="4">
-        <v>807</v>
+        <v>7517</v>
       </c>
       <c r="S27" s="4">
-        <v>10575</v>
+        <v>93177</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3508</v>
+      </c>
       <c r="C28" s="4">
-        <v>21</v>
+        <v>3739</v>
       </c>
       <c r="D28" s="4">
-        <v>99</v>
+        <v>3944</v>
       </c>
       <c r="E28" s="4">
-        <v>136</v>
+        <v>4155</v>
       </c>
       <c r="F28" s="4">
-        <v>183</v>
+        <v>4247</v>
       </c>
       <c r="G28" s="4">
-        <v>706</v>
+        <v>4584</v>
       </c>
       <c r="H28" s="4">
-        <v>750</v>
+        <v>4886</v>
       </c>
       <c r="I28" s="4">
-        <v>748</v>
+        <v>5185</v>
       </c>
       <c r="J28" s="4">
-        <v>705</v>
+        <v>6049</v>
       </c>
       <c r="K28" s="4">
-        <v>637</v>
+        <v>6547</v>
       </c>
       <c r="L28" s="4">
-        <v>580</v>
+        <v>6329</v>
       </c>
       <c r="M28" s="4">
-        <v>526</v>
+        <v>5932</v>
       </c>
       <c r="N28" s="4">
-        <v>510</v>
+        <v>5830</v>
       </c>
       <c r="O28" s="4">
-        <v>510</v>
+        <v>7365</v>
       </c>
       <c r="P28" s="4">
-        <v>505</v>
+        <v>8817</v>
       </c>
       <c r="Q28" s="4">
-        <v>517</v>
+        <v>9049</v>
       </c>
       <c r="R28" s="4">
-        <v>529</v>
+        <v>33361</v>
       </c>
       <c r="S28" s="4">
-        <v>7662</v>
+        <v>123527</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>341</v>
+        <v>11215</v>
       </c>
       <c r="C29" s="4">
-        <v>310</v>
+        <v>10356</v>
       </c>
       <c r="D29" s="4">
-        <v>289</v>
+        <v>9567</v>
       </c>
       <c r="E29" s="4">
-        <v>299</v>
+        <v>9057</v>
       </c>
       <c r="F29" s="4">
-        <v>313</v>
+        <v>8721</v>
       </c>
       <c r="G29" s="4">
-        <v>344</v>
+        <v>8369</v>
       </c>
       <c r="H29" s="4">
-        <v>371</v>
+        <v>7925</v>
       </c>
       <c r="I29" s="4">
-        <v>394</v>
+        <v>7552</v>
       </c>
       <c r="J29" s="4">
-        <v>529</v>
+        <v>7087</v>
       </c>
       <c r="K29" s="4">
-        <v>574</v>
+        <v>6593</v>
       </c>
       <c r="L29" s="4">
-        <v>526</v>
+        <v>6236</v>
       </c>
       <c r="M29" s="4">
-        <v>503</v>
+        <v>5975</v>
       </c>
       <c r="N29" s="4">
-        <v>491</v>
+        <v>5723</v>
       </c>
       <c r="O29" s="4">
-        <v>466</v>
+        <v>5482</v>
       </c>
       <c r="P29" s="4">
-        <v>463</v>
+        <v>5249</v>
       </c>
       <c r="Q29" s="4">
-        <v>455</v>
+        <v>5062</v>
       </c>
       <c r="R29" s="4">
-        <v>467</v>
+        <v>5081</v>
       </c>
       <c r="S29" s="4">
-        <v>7135</v>
+        <v>125250</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B30" s="4">
-        <v>848</v>
+        <v>6088</v>
       </c>
       <c r="C30" s="4">
-        <v>782</v>
+        <v>6351</v>
       </c>
       <c r="D30" s="4">
-        <v>694</v>
+        <v>6504</v>
       </c>
       <c r="E30" s="4">
-        <v>646</v>
+        <v>6643</v>
       </c>
       <c r="F30" s="4">
-        <v>615</v>
+        <v>6768</v>
       </c>
       <c r="G30" s="4">
-        <v>568</v>
+        <v>7027</v>
       </c>
       <c r="H30" s="4">
-        <v>523</v>
+        <v>7190</v>
       </c>
       <c r="I30" s="4">
-        <v>513</v>
+        <v>7309</v>
       </c>
       <c r="J30" s="4">
-        <v>105</v>
+        <v>8038</v>
       </c>
       <c r="K30" s="4">
-        <v>37</v>
+        <v>8565</v>
       </c>
       <c r="L30" s="4">
-        <v>12</v>
+        <v>8762</v>
       </c>
       <c r="M30" s="4">
-        <v>8</v>
+        <v>9084</v>
       </c>
       <c r="N30" s="4">
-        <v>10</v>
+        <v>9938</v>
       </c>
       <c r="O30" s="4">
-        <v>11</v>
+        <v>9936</v>
       </c>
       <c r="P30" s="4">
-        <v>7</v>
+        <v>9874</v>
       </c>
       <c r="Q30" s="4">
-        <v>5</v>
+        <v>9826</v>
       </c>
       <c r="R30" s="4">
-        <v>6</v>
+        <v>10005</v>
       </c>
       <c r="S30" s="4">
-        <v>5390</v>
+        <v>137908</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="4">
-        <v>157</v>
-      </c>
-      <c r="C31" s="4">
-        <v>155</v>
-      </c>
-      <c r="D31" s="4">
-        <v>149</v>
-      </c>
-      <c r="E31" s="4">
-        <v>146</v>
-      </c>
-      <c r="F31" s="4">
-        <v>142</v>
-      </c>
-      <c r="G31" s="4">
-        <v>138</v>
-      </c>
-      <c r="H31" s="4">
-        <v>135</v>
-      </c>
-      <c r="I31" s="4">
-        <v>132</v>
-      </c>
-      <c r="J31" s="4">
-        <v>129</v>
-      </c>
-      <c r="K31" s="4">
-        <v>129</v>
-      </c>
-      <c r="L31" s="4">
-        <v>129</v>
-      </c>
-      <c r="M31" s="4">
-        <v>125</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
       <c r="N31" s="4">
-        <v>121</v>
+        <v>3519</v>
       </c>
       <c r="O31" s="4">
-        <v>117</v>
+        <v>14567</v>
       </c>
       <c r="P31" s="4">
-        <v>114</v>
+        <v>30765</v>
       </c>
       <c r="Q31" s="4">
-        <v>110</v>
+        <v>47496</v>
       </c>
       <c r="R31" s="4">
-        <v>108</v>
+        <v>45756</v>
       </c>
       <c r="S31" s="4">
-        <v>2236</v>
+        <v>142103</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4">
-        <v>146</v>
+        <v>13355</v>
       </c>
       <c r="C32" s="4">
-        <v>121</v>
+        <v>12519</v>
       </c>
       <c r="D32" s="4">
-        <v>110</v>
+        <v>11784</v>
       </c>
       <c r="E32" s="4">
-        <v>104</v>
+        <v>11365</v>
       </c>
       <c r="F32" s="4">
-        <v>106</v>
+        <v>11122</v>
       </c>
       <c r="G32" s="4">
-        <v>104</v>
+        <v>10925</v>
       </c>
       <c r="H32" s="4">
-        <v>104</v>
+        <v>10597</v>
       </c>
       <c r="I32" s="4">
-        <v>114</v>
+        <v>10288</v>
       </c>
       <c r="J32" s="4">
-        <v>83</v>
+        <v>10681</v>
       </c>
       <c r="K32" s="4">
-        <v>41</v>
+        <v>10614</v>
       </c>
       <c r="L32" s="4">
-        <v>21</v>
+        <v>10073</v>
       </c>
       <c r="M32" s="4">
-        <v>10</v>
+        <v>9393</v>
       </c>
       <c r="N32" s="4">
-        <v>8</v>
+        <v>6829</v>
       </c>
       <c r="O32" s="4">
-        <v>4</v>
+        <v>3675</v>
       </c>
       <c r="P32" s="4">
-        <v>5</v>
+        <v>3341</v>
       </c>
       <c r="Q32" s="4">
-        <v>5</v>
+        <v>3311</v>
       </c>
       <c r="R32" s="4">
-        <v>4</v>
+        <v>3183</v>
       </c>
       <c r="S32" s="4">
-        <v>1090</v>
+        <v>153055</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B33" s="4">
+        <v>8718</v>
+      </c>
+      <c r="C33" s="4">
+        <v>8728</v>
+      </c>
+      <c r="D33" s="4">
+        <v>8653</v>
+      </c>
+      <c r="E33" s="4">
+        <v>8857</v>
+      </c>
+      <c r="F33" s="4">
+        <v>9499</v>
+      </c>
+      <c r="G33" s="4">
+        <v>15907</v>
+      </c>
+      <c r="H33" s="4">
+        <v>16519</v>
+      </c>
+      <c r="I33" s="4">
+        <v>14573</v>
+      </c>
+      <c r="J33" s="4">
+        <v>15446</v>
+      </c>
+      <c r="K33" s="4">
+        <v>16403</v>
+      </c>
+      <c r="L33" s="4">
+        <v>16577</v>
+      </c>
+      <c r="M33" s="4">
+        <v>15545</v>
+      </c>
+      <c r="N33" s="4">
+        <v>15576</v>
+      </c>
+      <c r="O33" s="4">
+        <v>16046</v>
+      </c>
+      <c r="P33" s="4">
+        <v>16653</v>
+      </c>
       <c r="Q33" s="4">
-        <v>66</v>
+        <v>16164</v>
       </c>
       <c r="R33" s="4">
-        <v>295</v>
+        <v>14945</v>
       </c>
       <c r="S33" s="4">
-        <v>361</v>
+        <v>234809</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4">
-        <v>117</v>
+        <v>9532</v>
       </c>
       <c r="C34" s="4">
-        <v>11</v>
+        <v>9913</v>
       </c>
       <c r="D34" s="4">
-        <v>12</v>
+        <v>9981</v>
       </c>
       <c r="E34" s="4">
-        <v>16</v>
+        <v>10645</v>
       </c>
       <c r="F34" s="4">
-        <v>16</v>
+        <v>10916</v>
       </c>
       <c r="G34" s="4">
-        <v>14</v>
+        <v>11805</v>
       </c>
       <c r="H34" s="4">
-        <v>13</v>
+        <v>12394</v>
       </c>
       <c r="I34" s="4">
-        <v>14</v>
+        <v>12772</v>
       </c>
       <c r="J34" s="4">
-        <v>15</v>
+        <v>15219</v>
       </c>
       <c r="K34" s="4">
-        <v>15</v>
+        <v>16233</v>
       </c>
       <c r="L34" s="4">
-        <v>15</v>
+        <v>15996</v>
       </c>
       <c r="M34" s="4">
-        <v>15</v>
+        <v>15552</v>
       </c>
       <c r="N34" s="4">
-        <v>14</v>
+        <v>15105</v>
       </c>
       <c r="O34" s="4">
-        <v>14</v>
+        <v>15985</v>
       </c>
       <c r="P34" s="4">
-        <v>13</v>
+        <v>16959</v>
       </c>
       <c r="Q34" s="4">
-        <v>12</v>
+        <v>16687</v>
       </c>
       <c r="R34" s="4">
-        <v>11</v>
+        <v>39942</v>
       </c>
       <c r="S34" s="4">
-        <v>337</v>
+        <v>255636</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B35" s="4">
+        <v>22192</v>
+      </c>
+      <c r="C35" s="4">
+        <v>22566</v>
+      </c>
+      <c r="D35" s="4">
+        <v>23533</v>
+      </c>
+      <c r="E35" s="4">
+        <v>24447</v>
+      </c>
+      <c r="F35" s="4">
+        <v>24530</v>
+      </c>
+      <c r="G35" s="4">
+        <v>24934</v>
+      </c>
+      <c r="H35" s="4">
+        <v>24663</v>
+      </c>
+      <c r="I35" s="4">
+        <v>24447</v>
+      </c>
+      <c r="J35" s="4">
+        <v>26791</v>
+      </c>
+      <c r="K35" s="4">
+        <v>29943</v>
+      </c>
+      <c r="L35" s="4">
+        <v>30055</v>
+      </c>
+      <c r="M35" s="4">
+        <v>29383</v>
+      </c>
+      <c r="N35" s="4">
+        <v>30304</v>
+      </c>
+      <c r="O35" s="4">
+        <v>29508</v>
+      </c>
+      <c r="P35" s="4">
+        <v>31514</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>30819</v>
+      </c>
       <c r="R35" s="4">
-        <v>294</v>
+        <v>31439</v>
       </c>
       <c r="S35" s="4">
-        <v>294</v>
+        <v>461068</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B36" s="4">
-        <v>26</v>
+        <v>56869</v>
       </c>
       <c r="C36" s="4">
-        <v>28</v>
+        <v>59758</v>
       </c>
       <c r="D36" s="4">
-        <v>23</v>
+        <v>58512</v>
       </c>
       <c r="E36" s="4">
-        <v>26</v>
+        <v>59053</v>
       </c>
       <c r="F36" s="4">
-        <v>28</v>
+        <v>59801</v>
       </c>
       <c r="G36" s="4">
-        <v>28</v>
+        <v>61149</v>
       </c>
       <c r="H36" s="4">
-        <v>28</v>
+        <v>55937</v>
       </c>
       <c r="I36" s="4">
-        <v>28</v>
+        <v>50633</v>
       </c>
       <c r="J36" s="4">
-        <v>13</v>
+        <v>48348</v>
       </c>
       <c r="K36" s="4">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
+        <v>46909</v>
+      </c>
+      <c r="L36" s="4">
+        <v>44140</v>
+      </c>
+      <c r="M36" s="4">
+        <v>41634</v>
+      </c>
+      <c r="N36" s="4">
+        <v>40056</v>
+      </c>
+      <c r="O36" s="4">
+        <v>38310</v>
+      </c>
+      <c r="P36" s="4">
+        <v>36347</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>34698</v>
+      </c>
+      <c r="R36" s="4">
+        <v>33298</v>
+      </c>
       <c r="S36" s="4">
-        <v>229</v>
+        <v>825452</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B37" s="4">
-        <v>1</v>
+        <v>69876</v>
       </c>
       <c r="C37" s="4">
-        <v>1</v>
+        <v>55213</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>42188</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
+        <v>37341</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>34686</v>
       </c>
       <c r="G37" s="4">
-        <v>1</v>
+        <v>34069</v>
       </c>
       <c r="H37" s="4">
-        <v>1</v>
+        <v>32645</v>
       </c>
       <c r="I37" s="4">
-        <v>1</v>
+        <v>37733</v>
       </c>
       <c r="J37" s="4">
-        <v>1</v>
+        <v>94230</v>
       </c>
       <c r="K37" s="4">
-        <v>1</v>
+        <v>118742</v>
       </c>
       <c r="L37" s="4">
-        <v>1</v>
+        <v>121834</v>
       </c>
       <c r="M37" s="4">
-        <v>1</v>
+        <v>123693</v>
       </c>
       <c r="N37" s="4">
-        <v>1</v>
+        <v>123698</v>
       </c>
       <c r="O37" s="4">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
+        <v>106807</v>
+      </c>
+      <c r="P37" s="4">
+        <v>86405</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>74591</v>
+      </c>
+      <c r="R37" s="4">
+        <v>68152</v>
+      </c>
       <c r="S37" s="4">
-        <v>14</v>
+        <v>1261903</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
